--- a/DS Log .xlsx
+++ b/DS Log .xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgurram\Desktop\A&amp;M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8016540-17DD-4811-87E7-D12066F92C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C644DF6-17C5-4FF4-9FDA-BA12301C8FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4CA0C73C-96B2-4761-9B25-C2E5F7BE0F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{4CA0C73C-96B2-4761-9B25-C2E5F7BE0F62}"/>
   </bookViews>
   <sheets>
     <sheet name="MS Most" sheetId="2" r:id="rId1"/>
     <sheet name="Amazon MS Card" sheetId="4" r:id="rId2"/>
-    <sheet name="hideone" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="Amazon Most" sheetId="7" r:id="rId3"/>
+    <sheet name="hideone" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MS Most'!$A$1:$C$347</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="584">
   <si>
     <t>Longest Happy String</t>
   </si>
@@ -1543,6 +1544,255 @@
   </si>
   <si>
     <t>Hard One</t>
+  </si>
+  <si>
+    <t>Count Unique Characters of All Substrings of a Given String</t>
+  </si>
+  <si>
+    <t>Sum of Subarray Ranges</t>
+  </si>
+  <si>
+    <t>Analyze User Website Visit Pattern</t>
+  </si>
+  <si>
+    <t>Reorder Data in Log Files</t>
+  </si>
+  <si>
+    <t>Flip String to Monotone Increasing</t>
+  </si>
+  <si>
+    <t>Maximum Length of Subarray With Positive Product</t>
+  </si>
+  <si>
+    <t>Substring With Largest Variance</t>
+  </si>
+  <si>
+    <t>Maximum Twin Sum of a Linked List</t>
+  </si>
+  <si>
+    <t>Count Binary Substrings</t>
+  </si>
+  <si>
+    <t>Minimum Swaps to Group All 1's Together</t>
+  </si>
+  <si>
+    <t>Sum of Subarray Minimums</t>
+  </si>
+  <si>
+    <t>Maximum Units on a Truck</t>
+  </si>
+  <si>
+    <t>The kth Factor of n</t>
+  </si>
+  <si>
+    <t>Minimum Health to Beat Game</t>
+  </si>
+  <si>
+    <t>Shortest Path to Get Food</t>
+  </si>
+  <si>
+    <t>Range Addition</t>
+  </si>
+  <si>
+    <t>All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit</t>
+  </si>
+  <si>
+    <t>Sequentially Ordinal Rank Tracker</t>
+  </si>
+  <si>
+    <t>Build Binary Expression Tree From Infix Expression</t>
+  </si>
+  <si>
+    <t>Design an Expression Tree With Evaluate Function</t>
+  </si>
+  <si>
+    <t>Sequential Digits</t>
+  </si>
+  <si>
+    <t>Recover Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Design Parking System</t>
+  </si>
+  <si>
+    <t>Sell Diminishing-Valued Colored Balls</t>
+  </si>
+  <si>
+    <t>Minimum Number of Moves to Make Palindrome</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Connect Sticks</t>
+  </si>
+  <si>
+    <t>Minimum Number of Swaps to Make the Binary String Alternating</t>
+  </si>
+  <si>
+    <t>First and Last Call On the Same Day</t>
+  </si>
+  <si>
+    <t>Sum of Total Strength of Wizards</t>
+  </si>
+  <si>
+    <t>Pairs of Songs With Total Durations Divisible by 60</t>
+  </si>
+  <si>
+    <t>Maximum Subarray Min-Product</t>
+  </si>
+  <si>
+    <t>Number of Days Between Two Dates</t>
+  </si>
+  <si>
+    <t>Kill Process</t>
+  </si>
+  <si>
+    <t>Find the Closest Palindrome</t>
+  </si>
+  <si>
+    <t>Snakes and Ladders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge BSTs to Create Single </t>
+  </si>
+  <si>
+    <t>Nth Magical Number</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Synonymous Sentences</t>
+  </si>
+  <si>
+    <t>Find Good Days to Rob the Bank</t>
+  </si>
+  <si>
+    <t>Total Appeal of A String</t>
+  </si>
+  <si>
+    <t>Trips and Users</t>
+  </si>
+  <si>
+    <t>Number of Laser Beams in a Bank</t>
+  </si>
+  <si>
+    <t>Design Snake Game</t>
+  </si>
+  <si>
+    <t>Find the Derangement of An Array</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>https://algo.monster/problems/sum-of-subarray-minimums</t>
+  </si>
+  <si>
+    <t>This is Imbalance shipment</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eN8zATT702M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nhqoZPTvF9w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rPSi_G7b4ME</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-vZ7LjWSWzY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l4VdZkOQoEc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TzoDDOj60zE&amp;t=139s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6s1Y3zSIMbI</t>
+  </si>
+  <si>
+    <t>apply word break</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bdaxHSK3Czo&amp;t=8s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OJWKzff4Ivg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jyHI_53C_E0&amp;t=19s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zaM_GLLvysw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g1R3yEtHT8E</t>
+  </si>
+  <si>
+    <t>Read comments</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AmlVSNBHzJg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6GGTBM7mwfs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lJwbPZGo05A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UzVQ9zRVsWg</t>
+  </si>
+  <si>
+    <t>On Hold</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aTOgo0tzaGs</t>
+  </si>
+  <si>
+    <t>OnHold</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B03vFuqJqHI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MZDLRvgpzk4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cupg2TGIkyM</t>
+  </si>
+  <si>
+    <t>VerticalOrderTraversal</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PQKkr036wRc&amp;t=2s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fu2cD_6E8Hw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5gHnQ4lfDko</t>
+  </si>
+  <si>
+    <t>IK cl</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zx5Sw9130L0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2uPKWpMHmZA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mC2FDLa3wbk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gRAmXV0T5B4</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit/discuss/2055269/C-oror-O(n)-oror-Sliding-Window-oror-LinkedList</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1831,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1591,6 +1841,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,7 +1876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1618,9 +1886,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1938,18 +2209,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB051ED2-709F-4C45-AAD7-9C7536FCE462}">
   <dimension ref="A1:C347"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>349</v>
       </c>
@@ -1960,7 +2231,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +2242,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1982,7 +2253,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1993,7 +2264,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2004,7 +2275,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2015,7 +2286,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +2297,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2037,7 +2308,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2319,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2059,7 +2330,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2070,7 +2341,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2081,7 +2352,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2092,7 +2363,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2103,7 +2374,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2114,7 +2385,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2125,7 +2396,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2136,7 +2407,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2147,7 +2418,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2158,7 +2429,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2169,7 +2440,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2180,7 +2451,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2191,7 +2462,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2202,7 +2473,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2213,7 +2484,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2224,7 +2495,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2235,7 +2506,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2246,7 +2517,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2257,7 +2528,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2268,7 +2539,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2279,7 +2550,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2290,7 +2561,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2301,7 +2572,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2312,7 +2583,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2323,7 +2594,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2334,7 +2605,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2345,7 +2616,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2356,7 +2627,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2367,7 +2638,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2378,7 +2649,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2389,7 +2660,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2400,7 +2671,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2411,7 +2682,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2422,7 +2693,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2433,7 +2704,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2444,7 +2715,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2455,7 +2726,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2466,7 +2737,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2477,7 +2748,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2488,7 +2759,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2499,7 +2770,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2510,7 +2781,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2521,7 +2792,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2532,7 +2803,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2543,7 +2814,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2554,7 +2825,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2565,7 +2836,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2576,7 +2847,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2587,7 +2858,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2598,7 +2869,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2609,7 +2880,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2620,7 +2891,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2631,7 +2902,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2642,7 +2913,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2653,7 +2924,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2664,7 +2935,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2675,7 +2946,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2686,7 +2957,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2697,7 +2968,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2708,7 +2979,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2719,7 +2990,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2730,7 +3001,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2741,7 +3012,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2752,7 +3023,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2763,7 +3034,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2774,7 +3045,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2785,7 +3056,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2796,7 +3067,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2807,7 +3078,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2818,7 +3089,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2829,7 +3100,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2840,7 +3111,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2851,7 +3122,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2862,7 +3133,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>85</v>
       </c>
@@ -2870,7 +3141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +3152,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2892,7 +3163,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>88</v>
       </c>
@@ -2900,7 +3171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2911,7 +3182,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2922,7 +3193,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2933,7 +3204,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2944,7 +3215,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2955,7 +3226,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>94</v>
       </c>
@@ -2963,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>95</v>
       </c>
@@ -2971,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2979,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2987,7 +3258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2995,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -3003,7 +3274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -3011,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -3019,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -3027,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -3038,7 +3309,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -3046,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -3057,7 +3328,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -3068,7 +3339,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -3079,7 +3350,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -3090,7 +3361,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -3098,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -3106,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -3117,7 +3388,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -3128,7 +3399,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -3139,7 +3410,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -3150,7 +3421,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -3158,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -3169,7 +3440,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -3177,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -3185,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -3193,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -3201,7 +3472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -3209,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -3217,7 +3488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -3225,7 +3496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -3233,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -3241,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -3249,7 +3520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -3257,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -3265,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -3273,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -3281,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -3289,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -3300,7 +3571,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -3308,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -3319,7 +3590,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -3327,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -3335,7 +3606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -3346,7 +3617,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -3354,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -3365,7 +3636,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -3376,7 +3647,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -3384,7 +3655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -3392,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -3403,7 +3674,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -3411,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -3419,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -3427,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -3435,7 +3706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -3443,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -3451,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -3459,7 +3730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -3467,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -3475,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -3483,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -3491,7 +3762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -3499,7 +3770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -3507,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -3515,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -3523,7 +3794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -3531,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -3539,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -3547,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -3555,7 +3826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -3563,7 +3834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -3571,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -3579,7 +3850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -3587,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -3595,7 +3866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -3603,7 +3874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -3611,7 +3882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -3619,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -3627,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -3635,7 +3906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -3643,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -3651,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -3659,7 +3930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -3667,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -3675,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -3683,7 +3954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -3691,7 +3962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -3699,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -3707,7 +3978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -3715,7 +3986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -3723,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -3731,7 +4002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -3739,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -3747,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -3755,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -3763,7 +4034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -3771,7 +4042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -3779,7 +4050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -3787,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -3795,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -3803,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -3811,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -3819,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -3827,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -3835,7 +4106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -3843,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -3851,7 +4122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -3859,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -3867,7 +4138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -3875,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -3883,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -3891,7 +4162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -3899,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -3907,7 +4178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -3915,7 +4186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -3923,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -3931,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -3939,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -3947,7 +4218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -3955,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -3963,7 +4234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -3971,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -3979,7 +4250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -3987,7 +4258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -3995,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -4003,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -4011,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -4019,7 +4290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -4027,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -4035,7 +4306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -4043,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -4051,7 +4322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -4059,7 +4330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -4067,7 +4338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -4075,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -4083,7 +4354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -4091,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -4099,7 +4370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -4107,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -4115,7 +4386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -4123,7 +4394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -4131,7 +4402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -4139,7 +4410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -4147,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -4155,7 +4426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -4163,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -4171,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -4179,7 +4450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -4187,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -4195,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -4203,7 +4474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -4211,7 +4482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -4219,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -4227,7 +4498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -4235,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -4243,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -4251,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -4259,7 +4530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -4267,7 +4538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -4275,7 +4546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -4283,7 +4554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -4291,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -4299,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -4307,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -4315,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -4323,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -4331,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -4339,7 +4610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -4347,7 +4618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -4355,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -4363,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -4371,7 +4642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -4379,7 +4650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -4387,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -4395,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -4403,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -4411,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -4419,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -4427,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -4435,7 +4706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -4443,7 +4714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -4451,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -4459,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -4467,7 +4738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -4475,7 +4746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>278</v>
       </c>
@@ -4483,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -4491,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -4499,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -4507,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -4515,7 +4786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -4523,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -4531,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -4539,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -4547,7 +4818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -4555,7 +4826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -4563,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -4571,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -4579,7 +4850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -4587,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -4595,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -4603,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>294</v>
       </c>
@@ -4611,7 +4882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>295</v>
       </c>
@@ -4619,7 +4890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -4627,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -4635,7 +4906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -4643,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -4651,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -4659,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -4667,7 +4938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -4675,7 +4946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -4683,7 +4954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -4691,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -4699,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -4707,7 +4978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -4715,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -4723,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -4731,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>310</v>
       </c>
@@ -4739,7 +5010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>311</v>
       </c>
@@ -4747,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -4755,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>313</v>
       </c>
@@ -4763,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -4771,7 +5042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>315</v>
       </c>
@@ -4779,7 +5050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>316</v>
       </c>
@@ -4787,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -4795,7 +5066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -4803,7 +5074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>319</v>
       </c>
@@ -4811,7 +5082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>320</v>
       </c>
@@ -4819,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>321</v>
       </c>
@@ -4827,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>322</v>
       </c>
@@ -4835,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -4843,7 +5114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -4851,7 +5122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -4859,7 +5130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -4867,7 +5138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>327</v>
       </c>
@@ -4875,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -4883,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -4891,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>330</v>
       </c>
@@ -4899,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>331</v>
       </c>
@@ -4907,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>332</v>
       </c>
@@ -4915,7 +5186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -4923,7 +5194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -4931,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -4939,7 +5210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -4947,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>337</v>
       </c>
@@ -4955,7 +5226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>338</v>
       </c>
@@ -4966,7 +5237,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>339</v>
       </c>
@@ -4974,7 +5245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -4982,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>341</v>
       </c>
@@ -4990,7 +5261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>342</v>
       </c>
@@ -4998,7 +5269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>343</v>
       </c>
@@ -5006,7 +5277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -5014,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -5022,7 +5293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>346</v>
       </c>
@@ -5030,7 +5301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -5038,7 +5309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -5061,18 +5332,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFE4273-866B-4934-B194-F209A87A5A64}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>439</v>
       </c>
@@ -5080,7 +5351,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -5088,7 +5359,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -5096,7 +5367,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -5104,7 +5375,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -5112,7 +5383,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -5120,7 +5391,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>243</v>
       </c>
@@ -5128,7 +5399,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -5136,7 +5407,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>285</v>
       </c>
@@ -5144,7 +5415,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -5152,7 +5423,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -5160,7 +5431,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -5168,7 +5439,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>428</v>
       </c>
@@ -5176,7 +5447,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -5184,7 +5455,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -5192,7 +5463,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -5200,7 +5471,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -5208,7 +5479,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>250</v>
       </c>
@@ -5216,7 +5487,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -5224,7 +5495,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>429</v>
       </c>
@@ -5232,7 +5503,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>430</v>
       </c>
@@ -5240,7 +5511,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -5248,7 +5519,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -5256,7 +5527,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>224</v>
       </c>
@@ -5264,7 +5535,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -5272,7 +5543,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -5280,7 +5551,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -5288,7 +5559,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -5296,7 +5567,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>194</v>
       </c>
@@ -5304,7 +5575,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>199</v>
       </c>
@@ -5312,7 +5583,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>236</v>
       </c>
@@ -5320,7 +5591,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -5328,7 +5599,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>295</v>
       </c>
@@ -5336,7 +5607,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>226</v>
       </c>
@@ -5344,7 +5615,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -5352,7 +5623,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -5360,7 +5631,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -5368,7 +5639,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>134</v>
       </c>
@@ -5376,7 +5647,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>301</v>
       </c>
@@ -5384,7 +5655,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>431</v>
       </c>
@@ -5392,7 +5663,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -5400,7 +5671,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -5408,7 +5679,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -5416,7 +5687,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -5424,7 +5695,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -5432,7 +5703,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -5440,7 +5711,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -5448,7 +5719,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -5456,7 +5727,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>432</v>
       </c>
@@ -5464,7 +5735,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -5472,7 +5743,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -5483,7 +5754,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5494,7 +5765,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>336</v>
       </c>
@@ -5505,7 +5776,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -5516,7 +5787,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>215</v>
       </c>
@@ -5524,7 +5795,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>184</v>
       </c>
@@ -5532,7 +5803,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -5540,7 +5811,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -5548,7 +5819,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -5556,7 +5827,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>216</v>
       </c>
@@ -5564,7 +5835,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -5572,7 +5843,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -5580,7 +5851,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -5588,7 +5859,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -5596,7 +5867,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -5604,7 +5875,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>307</v>
       </c>
@@ -5612,7 +5883,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>433</v>
       </c>
@@ -5620,7 +5891,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>434</v>
       </c>
@@ -5628,7 +5899,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>474</v>
       </c>
@@ -5636,7 +5907,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -5644,7 +5915,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>323</v>
       </c>
@@ -5652,7 +5923,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -5660,7 +5931,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -5668,7 +5939,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -5679,7 +5950,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -5690,7 +5961,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -5698,7 +5969,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>187</v>
       </c>
@@ -5706,7 +5977,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>436</v>
       </c>
@@ -5714,7 +5985,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>339</v>
       </c>
@@ -5722,27 +5993,27 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>481</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="8" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>203</v>
       </c>
       <c r="B81" t="s">
         <v>481</v>
       </c>
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>338</v>
       </c>
@@ -5750,7 +6021,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -5761,7 +6032,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -5769,7 +6040,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -5777,7 +6048,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>147</v>
       </c>
@@ -5791,7 +6062,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>303</v>
       </c>
@@ -5799,7 +6070,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>273</v>
       </c>
@@ -5807,7 +6078,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>117</v>
       </c>
@@ -5815,7 +6086,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -5823,7 +6094,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>437</v>
       </c>
@@ -5831,7 +6102,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>283</v>
       </c>
@@ -5839,7 +6110,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -5847,7 +6118,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>209</v>
       </c>
@@ -5855,7 +6126,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>438</v>
       </c>
@@ -5863,7 +6134,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>214</v>
       </c>
@@ -5871,7 +6142,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>306</v>
       </c>
@@ -5879,7 +6150,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>93</v>
       </c>
@@ -5887,7 +6158,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>116</v>
       </c>
@@ -5895,7 +6166,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>213</v>
       </c>
@@ -5917,6 +6188,1018 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA35280F-285F-4AA0-A29D-FD2F8892639D}">
+  <dimension ref="A1:D110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="161.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>505</v>
+      </c>
+      <c r="B21">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B24">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>556</v>
+      </c>
+      <c r="D29" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>508</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>250</v>
+      </c>
+      <c r="B40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>511</v>
+      </c>
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>509</v>
+      </c>
+      <c r="B43">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>512</v>
+      </c>
+      <c r="B44">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>517</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>562</v>
+      </c>
+      <c r="D48" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>539</v>
+      </c>
+      <c r="B50">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>507</v>
+      </c>
+      <c r="B51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>513</v>
+      </c>
+      <c r="B56">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>510</v>
+      </c>
+      <c r="B61">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>523</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>582</v>
+      </c>
+      <c r="D64" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B65">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>516</v>
+      </c>
+      <c r="B66">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>524</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B69">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>531</v>
+      </c>
+      <c r="B74">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>536</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>574</v>
+      </c>
+      <c r="C77" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>334</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>522</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>525</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>527</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>519</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>521</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>534</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>542</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>543</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>520</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>526</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>532</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>544</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>533</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>535</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>541</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>545</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>528</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>529</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>538</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>540</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>537</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>546</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C110">
+    <sortCondition descending="1" ref="B1:B110"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92308DF-67B9-43E8-B3FA-AD970AE6C559}">
   <dimension ref="A1:B127"/>
   <sheetViews>
@@ -5924,13 +7207,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -5938,632 +7221,632 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>213</v>
       </c>
